--- a/Assets/xlsx/gamedata.xlsx
+++ b/Assets/xlsx/gamedata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ProjectPDO\ProjectPDO\Assets\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Portal\Assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181A3292-5B63-449E-A8A7-2A384F9E6F3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA818D19-4348-466E-BE27-7981B6368483}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27840" windowHeight="16440" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerLevel" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="134">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,10 +274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>base[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>effectDesc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -535,6 +531,10 @@
   </si>
   <si>
     <t>iconPrefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseProp[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -861,379 +861,457 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>100</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>200</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>400</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>600</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>4000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
         <v>800</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>5000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
         <v>1000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>6000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
         <v>1500</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>7000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
         <v>2000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>8000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
         <v>2500</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>9000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
         <v>3000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>10000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
         <v>3500</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>11000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
         <v>4000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>12000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
         <v>4500</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>13000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
         <v>5000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>14000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
         <v>6000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>15000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
         <v>7000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>16000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
         <v>8000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>17000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
         <v>9000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>18000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
         <v>10000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>19000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
         <v>11000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>20000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
         <v>12000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>21000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
         <v>13000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>22000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
         <v>14000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>23000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
         <v>15000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>24000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
         <v>16000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>25000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>100</v>
       </c>
     </row>
@@ -1249,7 +1327,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1338,286 +1416,361 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C46B52-1B46-4CFC-96A9-FD3476CABEE2}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>15</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>20</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1500</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>25</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
         <v>30</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>2500</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
         <v>35</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
         <v>40</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>6000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
         <v>45</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>7000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
         <v>50</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>8000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
         <v>55</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>10000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
         <v>60</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>12000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
         <v>65</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>14000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
         <v>70</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>16000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
         <v>75</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>18000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
         <v>80</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>21000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
         <v>85</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>24000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
         <v>90</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>27000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
         <v>95</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>30000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
         <v>100</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>33000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
         <v>110</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>40000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
         <v>120</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>47000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
         <v>130</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>54000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
         <v>140</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>61000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
         <v>150</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>70000</v>
       </c>
     </row>
@@ -1632,7 +1785,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D3"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1735,211 +1888,289 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCD944A-4400-48EC-BB78-C4FE2F825A4B}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>1500</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
         <v>2500</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
         <v>5000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
         <v>6000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
         <v>7000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
         <v>8000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
         <v>10000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
         <v>12000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
         <v>14000</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
         <v>16000</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
         <v>18000</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
         <v>21000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
         <v>24000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
         <v>27000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
         <v>30000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
         <v>33000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
         <v>40000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
         <v>47000</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
         <v>54000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
         <v>61000</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
         <v>70000</v>
       </c>
     </row>
@@ -1954,7 +2185,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1972,13 +2203,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>52</v>
@@ -1987,7 +2218,7 @@
         <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>12</v>
@@ -1998,19 +2229,19 @@
         <v>20101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H2" s="1">
         <v>20101</v>
@@ -2021,19 +2252,19 @@
         <v>20102</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H3" s="1">
         <v>20102</v>
@@ -2044,19 +2275,19 @@
         <v>20103</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H4" s="1">
         <v>20103</v>
@@ -2067,19 +2298,19 @@
         <v>20104</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="1">
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H5" s="1">
         <v>20104</v>
@@ -2090,19 +2321,19 @@
         <v>20105</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H6" s="1">
         <v>20105</v>
@@ -2113,19 +2344,19 @@
         <v>20106</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H7" s="1">
         <v>20106</v>
@@ -2136,19 +2367,19 @@
         <v>20107</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H8" s="1">
         <v>20107</v>
@@ -2159,19 +2390,19 @@
         <v>20108</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H9" s="1">
         <v>20108</v>
@@ -2182,19 +2413,19 @@
         <v>20201</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H10" s="1">
         <v>20201</v>
@@ -2205,19 +2436,19 @@
         <v>20202</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H11" s="1">
         <v>20202</v>
@@ -2228,19 +2459,19 @@
         <v>20203</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H12" s="1">
         <v>20203</v>
@@ -2251,19 +2482,19 @@
         <v>20204</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E13" s="1">
         <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H13" s="1">
         <v>20204</v>
@@ -2274,19 +2505,19 @@
         <v>20205</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H14" s="1">
         <v>20205</v>
@@ -2297,19 +2528,19 @@
         <v>20206</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H15" s="1">
         <v>20206</v>
@@ -2320,19 +2551,19 @@
         <v>20207</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E16" s="1">
         <v>3</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H16" s="1">
         <v>20207</v>
@@ -2343,19 +2574,19 @@
         <v>20208</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1">
         <v>4</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H17" s="1">
         <v>20208</v>
@@ -2370,36 +2601,42 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FB9929-B7F4-4513-9D16-CB748158B381}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" t="s">
         <v>130</v>
       </c>
-      <c r="D1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2407,403 +2644,547 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>100</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <v>50</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>25</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>750</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
         <v>50</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>25</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
         <v>50</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>25</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>1250</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
         <v>25</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>25</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
         <v>25</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>25</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
         <v>25</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>25</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
         <v>25</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>25</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
         <v>25</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>25</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>3500</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
         <v>4000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
         <v>10</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>10</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
         <v>10</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>10</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>6000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
         <v>10</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>10</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>7000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15">
         <v>10</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>10</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>8000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
       <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16">
         <v>5</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>5</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>9000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
       <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
         <v>5</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>5</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>11000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
       <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
         <v>5</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>5</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>13000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
       <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19">
         <v>5</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>5</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>15000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
       <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20">
         <v>5</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>5</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>17000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
       <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>2</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>19000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
       <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22">
         <v>2</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>2</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>22000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
       <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23">
         <v>2</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>2</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>25000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
       <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24">
         <v>2</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>2</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>28000</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
       <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25">
         <v>2</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>2</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>31000</v>
       </c>
     </row>
@@ -2817,13 +3198,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78BD332-DE9D-49EA-A752-215773688C1D}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
     <col min="7" max="7" width="16.75" customWidth="1"/>
@@ -2836,16 +3217,16 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
@@ -2891,11 +3272,11 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2908,10 +3289,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3">
@@ -2931,11 +3312,11 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -2948,11 +3329,11 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
         <v>45</v>
-      </c>
-      <c r="B5">
-        <v>101</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -2961,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
@@ -2989,11 +3370,11 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
-      </c>
-      <c r="B6">
-        <v>102</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -3002,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
@@ -3030,11 +3411,11 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7">
+        <v>10000</v>
+      </c>
+      <c r="B7" t="s">
         <v>54</v>
-      </c>
-      <c r="B7">
-        <v>10000</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -3047,11 +3428,11 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8">
+        <v>10101</v>
+      </c>
+      <c r="B8" t="s">
         <v>39</v>
-      </c>
-      <c r="B8">
-        <v>10101</v>
       </c>
       <c r="C8">
         <v>10000</v>
@@ -3064,11 +3445,11 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9">
+        <v>10102</v>
+      </c>
+      <c r="B9" t="s">
         <v>40</v>
-      </c>
-      <c r="B9">
-        <v>10102</v>
       </c>
       <c r="C9">
         <v>10000</v>
@@ -3081,11 +3462,11 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10">
+        <v>10201</v>
+      </c>
+      <c r="B10" t="s">
         <v>41</v>
-      </c>
-      <c r="B10">
-        <v>10201</v>
       </c>
       <c r="C10">
         <v>10000</v>
@@ -3098,11 +3479,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11">
+        <v>10202</v>
+      </c>
+      <c r="B11" t="s">
         <v>42</v>
-      </c>
-      <c r="B11">
-        <v>10202</v>
       </c>
       <c r="C11">
         <v>10000</v>
@@ -3115,11 +3496,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12">
+      <c r="A12">
         <v>20000</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3128,15 +3509,15 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="1">
+      <c r="A13" s="1">
         <v>20101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
       </c>
       <c r="C13">
         <v>20000</v>
@@ -3145,18 +3526,18 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="A14" s="1">
         <v>20102</v>
+      </c>
+      <c r="B14" t="s">
+        <v>100</v>
       </c>
       <c r="C14">
         <v>20000</v>
@@ -3165,18 +3546,18 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="1">
+      <c r="A15" s="1">
         <v>20103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
       </c>
       <c r="C15">
         <v>20000</v>
@@ -3185,18 +3566,18 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="1">
+      <c r="A16" s="1">
         <v>20104</v>
+      </c>
+      <c r="B16" t="s">
+        <v>102</v>
       </c>
       <c r="C16">
         <v>20000</v>
@@ -3205,18 +3586,18 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="A17" s="1">
         <v>20105</v>
+      </c>
+      <c r="B17" t="s">
+        <v>103</v>
       </c>
       <c r="C17">
         <v>20000</v>
@@ -3225,18 +3606,18 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="1">
+      <c r="A18" s="1">
         <v>20106</v>
+      </c>
+      <c r="B18" t="s">
+        <v>104</v>
       </c>
       <c r="C18">
         <v>20000</v>
@@ -3245,18 +3626,18 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="1">
+      <c r="A19" s="1">
         <v>20107</v>
+      </c>
+      <c r="B19" t="s">
+        <v>105</v>
       </c>
       <c r="C19">
         <v>20000</v>
@@ -3265,18 +3646,18 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" s="1">
+      <c r="A20" s="1">
         <v>20108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>106</v>
       </c>
       <c r="C20">
         <v>20000</v>
@@ -3285,18 +3666,18 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="1">
+      <c r="A21" s="1">
         <v>20201</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
       </c>
       <c r="C21">
         <v>20000</v>
@@ -3305,18 +3686,18 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="1">
+      <c r="A22" s="1">
         <v>20202</v>
+      </c>
+      <c r="B22" t="s">
+        <v>108</v>
       </c>
       <c r="C22">
         <v>20000</v>
@@ -3325,18 +3706,18 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="1">
+      <c r="A23" s="1">
         <v>20203</v>
+      </c>
+      <c r="B23" t="s">
+        <v>109</v>
       </c>
       <c r="C23">
         <v>20000</v>
@@ -3345,18 +3726,18 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24" s="1">
+      <c r="A24" s="1">
         <v>20204</v>
+      </c>
+      <c r="B24" t="s">
+        <v>110</v>
       </c>
       <c r="C24">
         <v>20000</v>
@@ -3365,18 +3746,18 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" s="1">
+      <c r="A25" s="1">
         <v>20205</v>
+      </c>
+      <c r="B25" t="s">
+        <v>111</v>
       </c>
       <c r="C25">
         <v>20000</v>
@@ -3385,18 +3766,18 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" s="1">
+      <c r="A26" s="1">
         <v>20206</v>
+      </c>
+      <c r="B26" t="s">
+        <v>112</v>
       </c>
       <c r="C26">
         <v>20000</v>
@@ -3405,18 +3786,18 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="1">
+      <c r="A27" s="1">
         <v>20207</v>
+      </c>
+      <c r="B27" t="s">
+        <v>113</v>
       </c>
       <c r="C27">
         <v>20000</v>
@@ -3425,18 +3806,18 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" s="1">
+      <c r="A28" s="1">
         <v>20208</v>
+      </c>
+      <c r="B28" t="s">
+        <v>114</v>
       </c>
       <c r="C28">
         <v>20000</v>
@@ -3445,10 +3826,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/xlsx/gamedata.xlsx
+++ b/Assets/xlsx/gamedata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ProjectPDO\ProjectPDO\Assets\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ProjectPDO\Portal\Assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181A3292-5B63-449E-A8A7-2A384F9E6F3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8211FC79-9CCE-4CE1-A238-852F2C336DDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27840" windowHeight="16440" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27840" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerLevel" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="135">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,6 +535,10 @@
   </si>
   <si>
     <t>iconPrefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1246,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EF5476-4990-42E2-AFE1-9382AE187A31}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1261,7 +1265,7 @@
     <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1283,8 +1287,11 @@
       <c r="G1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -1306,8 +1313,11 @@
       <c r="G2">
         <v>10102</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
@@ -1328,11 +1338,15 @@
       </c>
       <c r="G3">
         <v>10202</v>
+      </c>
+      <c r="H3">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1954,7 +1968,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2817,8 +2831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78BD332-DE9D-49EA-A752-215773688C1D}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/xlsx/gamedata.xlsx
+++ b/Assets/xlsx/gamedata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Portal\Assets\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ProjectPDO\Portal\Assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA818D19-4348-466E-BE27-7981B6368483}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD5B009-FF8A-4B0A-8B34-0F6068454611}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27840" windowHeight="16440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerLevel" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,29 @@
     <sheet name="CharacterSkillLevel" sheetId="6" r:id="rId5"/>
     <sheet name="Weapon" sheetId="7" r:id="rId6"/>
     <sheet name="WeaponUpgrade" sheetId="8" r:id="rId7"/>
-    <sheet name="prop" sheetId="3" r:id="rId8"/>
+    <sheet name="Skin" sheetId="9" r:id="rId8"/>
+    <sheet name="prop" sheetId="3" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="183">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -535,6 +545,182 @@
   </si>
   <si>
     <t>baseProp[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingamePrefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>characterCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type : main(주무기)과 sub(보조무기) 2가지가 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade : 1(일반, 회색), 2(레어, 파란색), 3(유니크, 핑크색), 4(전설, 주황색)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킨 공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silver Hat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron Hat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold Hat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diamond Hat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron Garment</t>
+  </si>
+  <si>
+    <t>Silver Garment</t>
+  </si>
+  <si>
+    <t>Gold Garment</t>
+  </si>
+  <si>
+    <t>Diamond Garment</t>
+  </si>
+  <si>
+    <t>Iron Accessory</t>
+  </si>
+  <si>
+    <t>Silver Accessory</t>
+  </si>
+  <si>
+    <t>Gold Accessory</t>
+  </si>
+  <si>
+    <t>Diamond Accessory</t>
+  </si>
+  <si>
+    <t>hat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>garment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accessory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type : hat, garment, accessory 3가지가 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description of the Iron Hat</t>
+  </si>
+  <si>
+    <t>Description of the Silver Hat</t>
+  </si>
+  <si>
+    <t>Description of the Gold Hat</t>
+  </si>
+  <si>
+    <t>Description of the Diamond Hat</t>
+  </si>
+  <si>
+    <t>Description of the Iron Garment</t>
+  </si>
+  <si>
+    <t>Description of the Silver Garment</t>
+  </si>
+  <si>
+    <t>Description of the Gold Garment</t>
+  </si>
+  <si>
+    <t>Description of the Diamond Garment</t>
+  </si>
+  <si>
+    <t>Description of the Iron Accessory</t>
+  </si>
+  <si>
+    <t>Description of the Silver Accessory</t>
+  </si>
+  <si>
+    <t>Description of the Gold Accessory</t>
+  </si>
+  <si>
+    <t>Description of the Diamond Accessory</t>
+  </si>
+  <si>
+    <t>Atk. Power +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 모자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은 모자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금 모자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아 모자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은 옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금 옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아 옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철 악세서리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은 악세서리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금 악세서리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아 악세서리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackPower = 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1324,10 +1510,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EF5476-4990-42E2-AFE1-9382AE187A31}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1339,7 +1525,7 @@
     <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1361,8 +1547,11 @@
       <c r="G1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -1384,8 +1573,11 @@
       <c r="G2">
         <v>10102</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
@@ -1406,11 +1598,15 @@
       </c>
       <c r="G3">
         <v>10202</v>
+      </c>
+      <c r="H3">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1418,7 +1614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C46B52-1B46-4CFC-96A9-FD3476CABEE2}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -2182,23 +2378,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2011F3DB-CD1F-4257-A41A-283653EB3E9A}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:H1"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.875" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="59.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="3" width="21" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="59.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2206,389 +2403,452 @@
         <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M1" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>20101</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2">
+        <v>101</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="1">
+      <c r="J2" s="1">
         <v>20101</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M2" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>20102</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3">
+        <v>101</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="1">
+      <c r="J3" s="1">
         <v>20102</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M3" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>20103</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4">
+        <v>101</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="1">
+      <c r="J4" s="1">
         <v>20103</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>20104</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5">
+        <v>101</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="1">
+      <c r="J5" s="1">
         <v>20104</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>20105</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6">
+        <v>101</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H6" s="1">
+      <c r="J6" s="1">
         <v>20105</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>20106</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7">
+        <v>101</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H7" s="1">
+      <c r="J7" s="1">
         <v>20106</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>20107</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>3</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8">
+        <v>101</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H8" s="1">
+      <c r="J8" s="1">
         <v>20107</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>20108</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>4</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9">
+        <v>101</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H9" s="1">
+      <c r="J9" s="1">
         <v>20108</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>20201</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10">
+        <v>102</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H10" s="1">
+      <c r="J10" s="1">
         <v>20201</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>20202</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>2</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11">
+        <v>102</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H11" s="1">
+      <c r="J11" s="1">
         <v>20202</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>20203</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>3</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12">
+        <v>102</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H12" s="1">
+      <c r="J12" s="1">
         <v>20203</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>20204</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>4</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13">
+        <v>102</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H13" s="1">
+      <c r="J13" s="1">
         <v>20204</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>20205</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14">
+        <v>102</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H14" s="1">
+      <c r="J14" s="1">
         <v>20205</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>20206</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>2</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15">
+        <v>102</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H15" s="1">
+      <c r="J15" s="1">
         <v>20206</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>20207</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>3</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16">
+        <v>102</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="1">
+      <c r="J16" s="1">
         <v>20207</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>20208</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>4</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17">
+        <v>102</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="1">
+      <c r="J17" s="1">
         <v>20208</v>
       </c>
     </row>
@@ -3195,11 +3455,426 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78BD332-DE9D-49EA-A752-215773688C1D}">
-  <dimension ref="A1:R28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BDDA53-531F-423B-88C3-171761AE4F14}">
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K13" sqref="K2:K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.375" customWidth="1"/>
+    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="62.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2">
+        <v>101</v>
+      </c>
+      <c r="J2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K2">
+        <v>30101</v>
+      </c>
+      <c r="O2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3">
+        <v>101</v>
+      </c>
+      <c r="J3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K3">
+        <v>30102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>250</v>
+      </c>
+      <c r="H4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I4">
+        <v>101</v>
+      </c>
+      <c r="J4" t="s">
+        <v>169</v>
+      </c>
+      <c r="K4">
+        <v>30103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>1000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I5">
+        <v>101</v>
+      </c>
+      <c r="J5" t="s">
+        <v>169</v>
+      </c>
+      <c r="K5">
+        <v>30104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I6">
+        <v>101</v>
+      </c>
+      <c r="J6" t="s">
+        <v>169</v>
+      </c>
+      <c r="K6">
+        <v>30105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I7">
+        <v>101</v>
+      </c>
+      <c r="J7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K7">
+        <v>30106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>250</v>
+      </c>
+      <c r="H8" t="s">
+        <v>154</v>
+      </c>
+      <c r="I8">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>169</v>
+      </c>
+      <c r="K8">
+        <v>30107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>1000</v>
+      </c>
+      <c r="H9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>169</v>
+      </c>
+      <c r="K9">
+        <v>30108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>155</v>
+      </c>
+      <c r="I10">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>169</v>
+      </c>
+      <c r="K10">
+        <v>30109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11">
+        <v>101</v>
+      </c>
+      <c r="J11" t="s">
+        <v>169</v>
+      </c>
+      <c r="K11">
+        <v>30110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>250</v>
+      </c>
+      <c r="H12" t="s">
+        <v>155</v>
+      </c>
+      <c r="I12">
+        <v>101</v>
+      </c>
+      <c r="J12" t="s">
+        <v>169</v>
+      </c>
+      <c r="K12">
+        <v>30111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>1000</v>
+      </c>
+      <c r="H13" t="s">
+        <v>155</v>
+      </c>
+      <c r="I13">
+        <v>101</v>
+      </c>
+      <c r="J13" t="s">
+        <v>169</v>
+      </c>
+      <c r="K13">
+        <v>30112</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78BD332-DE9D-49EA-A752-215773688C1D}">
+  <dimension ref="A1:R41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3832,6 +4507,224 @@
         <v>122</v>
       </c>
     </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>30000</v>
+      </c>
+      <c r="B29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>30101</v>
+      </c>
+      <c r="B30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30">
+        <v>30000</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30102</v>
+      </c>
+      <c r="B31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31">
+        <v>30000</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30103</v>
+      </c>
+      <c r="B32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32">
+        <v>30000</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>30104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33">
+        <v>30000</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>30105</v>
+      </c>
+      <c r="B34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34">
+        <v>30000</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>30106</v>
+      </c>
+      <c r="B35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35">
+        <v>30000</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>30107</v>
+      </c>
+      <c r="B36" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36">
+        <v>30000</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>30108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37">
+        <v>30000</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>30109</v>
+      </c>
+      <c r="B38" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38">
+        <v>30000</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>30110</v>
+      </c>
+      <c r="B39" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39">
+        <v>30000</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>30111</v>
+      </c>
+      <c r="B40" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40">
+        <v>30000</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>30112</v>
+      </c>
+      <c r="B41" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41">
+        <v>30000</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/xlsx/gamedata.xlsx
+++ b/Assets/xlsx/gamedata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ProjectPDO\Portal\Assets\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Portal\Assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD5B009-FF8A-4B0A-8B34-0F6068454611}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E917E1D-F7F3-4046-B457-A9B195DDE30C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27840" windowHeight="16440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerLevel" sheetId="1" r:id="rId1"/>
@@ -1615,7 +1615,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3873,8 +3873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78BD332-DE9D-49EA-A752-215773688C1D}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/xlsx/gamedata.xlsx
+++ b/Assets/xlsx/gamedata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Portal\Assets\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ProjectPDO\Portal\Assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E917E1D-F7F3-4046-B457-A9B195DDE30C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4040F88C-B687-46E3-BC6F-8863BC7C3642}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27840" windowHeight="16440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerLevel" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="182">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,10 +101,6 @@
   </si>
   <si>
     <t>StartPlayerLevel = 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartCharacterLevel = 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1530,7 +1526,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -1542,13 +1538,13 @@
         <v>12</v>
       </c>
       <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" t="s">
-        <v>44</v>
-      </c>
       <c r="H1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1556,13 +1552,13 @@
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
       </c>
       <c r="E2">
         <v>101</v>
@@ -1582,13 +1578,13 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
       </c>
       <c r="E3">
         <v>102</v>
@@ -1628,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1996,7 +1992,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -2013,13 +2009,13 @@
         <v>10101</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>10101</v>
@@ -2030,13 +2026,13 @@
         <v>10102</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
         <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
       </c>
       <c r="E3">
         <v>10102</v>
@@ -2047,13 +2043,13 @@
         <v>10201</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4">
         <v>10201</v>
@@ -2064,13 +2060,13 @@
         <v>10202</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>10202</v>
@@ -2103,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2400,34 +2396,34 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -2435,28 +2431,28 @@
         <v>20101</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2">
         <v>101</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J2" s="1">
         <v>20101</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -2464,28 +2460,28 @@
         <v>20102</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H3">
         <v>101</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J3" s="1">
         <v>20102</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -2493,22 +2489,22 @@
         <v>20103</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H4">
         <v>101</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J4" s="1">
         <v>20103</v>
@@ -2519,22 +2515,22 @@
         <v>20104</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5">
         <v>101</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J5" s="1">
         <v>20104</v>
@@ -2545,22 +2541,22 @@
         <v>20105</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6">
         <v>101</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J6" s="1">
         <v>20105</v>
@@ -2571,22 +2567,22 @@
         <v>20106</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7">
         <v>101</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J7" s="1">
         <v>20106</v>
@@ -2597,22 +2593,22 @@
         <v>20107</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8">
         <v>101</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J8" s="1">
         <v>20107</v>
@@ -2623,22 +2619,22 @@
         <v>20108</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" s="1">
         <v>4</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9">
         <v>101</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J9" s="1">
         <v>20108</v>
@@ -2649,22 +2645,22 @@
         <v>20201</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H10">
         <v>102</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J10" s="1">
         <v>20201</v>
@@ -2675,22 +2671,22 @@
         <v>20202</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H11">
         <v>102</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J11" s="1">
         <v>20202</v>
@@ -2701,22 +2697,22 @@
         <v>20203</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F12" s="1">
         <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12">
         <v>102</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J12" s="1">
         <v>20203</v>
@@ -2727,22 +2723,22 @@
         <v>20204</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F13" s="1">
         <v>4</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H13">
         <v>102</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J13" s="1">
         <v>20204</v>
@@ -2753,22 +2749,22 @@
         <v>20205</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H14">
         <v>102</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J14" s="1">
         <v>20205</v>
@@ -2779,22 +2775,22 @@
         <v>20206</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" s="1">
         <v>2</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H15">
         <v>102</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J15" s="1">
         <v>20206</v>
@@ -2805,22 +2801,22 @@
         <v>20207</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F16" s="1">
         <v>3</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H16">
         <v>102</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J16" s="1">
         <v>20207</v>
@@ -2831,22 +2827,22 @@
         <v>20208</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F17" s="1">
         <v>4</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H17">
         <v>102</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J17" s="1">
         <v>20208</v>
@@ -2881,19 +2877,19 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" t="s">
         <v>129</v>
       </c>
-      <c r="F1" t="s">
-        <v>130</v>
-      </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -3477,38 +3473,38 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L1" s="1"/>
       <c r="O1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -3516,10 +3512,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -3528,19 +3524,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I2">
         <v>101</v>
       </c>
       <c r="J2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K2">
         <v>30101</v>
       </c>
       <c r="O2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -3548,10 +3544,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -3560,13 +3556,13 @@
         <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I3">
         <v>101</v>
       </c>
       <c r="J3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K3">
         <v>30102</v>
@@ -3577,10 +3573,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -3589,13 +3585,13 @@
         <v>250</v>
       </c>
       <c r="H4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I4">
         <v>101</v>
       </c>
       <c r="J4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K4">
         <v>30103</v>
@@ -3606,10 +3602,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -3618,13 +3614,13 @@
         <v>1000</v>
       </c>
       <c r="H5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I5">
         <v>101</v>
       </c>
       <c r="J5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K5">
         <v>30104</v>
@@ -3635,10 +3631,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3647,13 +3643,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I6">
         <v>101</v>
       </c>
       <c r="J6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K6">
         <v>30105</v>
@@ -3664,10 +3660,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -3676,13 +3672,13 @@
         <v>100</v>
       </c>
       <c r="H7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I7">
         <v>101</v>
       </c>
       <c r="J7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K7">
         <v>30106</v>
@@ -3693,10 +3689,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -3705,13 +3701,13 @@
         <v>250</v>
       </c>
       <c r="H8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I8">
         <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K8">
         <v>30107</v>
@@ -3722,10 +3718,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -3734,13 +3730,13 @@
         <v>1000</v>
       </c>
       <c r="H9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I9">
         <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K9">
         <v>30108</v>
@@ -3751,10 +3747,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -3763,13 +3759,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I10">
         <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K10">
         <v>30109</v>
@@ -3780,10 +3776,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -3792,13 +3788,13 @@
         <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I11">
         <v>101</v>
       </c>
       <c r="J11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K11">
         <v>30110</v>
@@ -3809,10 +3805,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -3821,13 +3817,13 @@
         <v>250</v>
       </c>
       <c r="H12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I12">
         <v>101</v>
       </c>
       <c r="J12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K12">
         <v>30111</v>
@@ -3838,10 +3834,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F13">
         <v>4</v>
@@ -3850,13 +3846,13 @@
         <v>1000</v>
       </c>
       <c r="H13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I13">
         <v>101</v>
       </c>
       <c r="J13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K13">
         <v>30112</v>
@@ -3874,7 +3870,7 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3898,10 +3894,10 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
@@ -3962,6 +3958,15 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -3976,14 +3981,11 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -3999,16 +4001,13 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -4017,31 +4016,31 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" t="s">
-        <v>19</v>
-      </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -4049,7 +4048,7 @@
         <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -4058,31 +4057,31 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
         <v>22</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" t="s">
-        <v>19</v>
-      </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -4090,16 +4089,13 @@
         <v>10000</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -4107,7 +4103,7 @@
         <v>10101</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>10000</v>
@@ -4116,7 +4112,7 @@
         <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -4124,7 +4120,7 @@
         <v>10102</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>10000</v>
@@ -4133,7 +4129,7 @@
         <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -4141,7 +4137,7 @@
         <v>10201</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>10000</v>
@@ -4150,7 +4146,7 @@
         <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -4158,7 +4154,7 @@
         <v>10202</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>10000</v>
@@ -4167,7 +4163,7 @@
         <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -4175,16 +4171,13 @@
         <v>20000</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -4192,7 +4185,7 @@
         <v>20101</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13">
         <v>20000</v>
@@ -4201,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -4212,7 +4205,7 @@
         <v>20102</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14">
         <v>20000</v>
@@ -4221,10 +4214,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -4232,7 +4225,7 @@
         <v>20103</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15">
         <v>20000</v>
@@ -4241,10 +4234,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -4252,7 +4245,7 @@
         <v>20104</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16">
         <v>20000</v>
@@ -4261,10 +4254,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -4272,7 +4265,7 @@
         <v>20105</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17">
         <v>20000</v>
@@ -4281,10 +4274,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -4292,7 +4285,7 @@
         <v>20106</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18">
         <v>20000</v>
@@ -4301,10 +4294,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -4312,7 +4305,7 @@
         <v>20107</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19">
         <v>20000</v>
@@ -4321,10 +4314,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -4332,7 +4325,7 @@
         <v>20108</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20">
         <v>20000</v>
@@ -4341,10 +4334,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -4352,7 +4345,7 @@
         <v>20201</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21">
         <v>20000</v>
@@ -4361,10 +4354,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -4372,7 +4365,7 @@
         <v>20202</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22">
         <v>20000</v>
@@ -4381,10 +4374,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -4392,7 +4385,7 @@
         <v>20203</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23">
         <v>20000</v>
@@ -4401,10 +4394,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -4412,7 +4405,7 @@
         <v>20204</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C24">
         <v>20000</v>
@@ -4421,10 +4414,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -4432,7 +4425,7 @@
         <v>20205</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C25">
         <v>20000</v>
@@ -4441,10 +4434,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -4452,7 +4445,7 @@
         <v>20206</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26">
         <v>20000</v>
@@ -4461,10 +4454,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -4472,7 +4465,7 @@
         <v>20207</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C27">
         <v>20000</v>
@@ -4481,10 +4474,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -4492,7 +4485,7 @@
         <v>20208</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C28">
         <v>20000</v>
@@ -4501,10 +4494,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -4512,7 +4505,7 @@
         <v>30000</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -4526,7 +4519,7 @@
         <v>30101</v>
       </c>
       <c r="B30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C30">
         <v>30000</v>
@@ -4535,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -4543,7 +4536,7 @@
         <v>30102</v>
       </c>
       <c r="B31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C31">
         <v>30000</v>
@@ -4552,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -4560,7 +4553,7 @@
         <v>30103</v>
       </c>
       <c r="B32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C32">
         <v>30000</v>
@@ -4569,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -4577,7 +4570,7 @@
         <v>30104</v>
       </c>
       <c r="B33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C33">
         <v>30000</v>
@@ -4586,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -4594,7 +4587,7 @@
         <v>30105</v>
       </c>
       <c r="B34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C34">
         <v>30000</v>
@@ -4603,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -4611,7 +4604,7 @@
         <v>30106</v>
       </c>
       <c r="B35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C35">
         <v>30000</v>
@@ -4620,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -4628,7 +4621,7 @@
         <v>30107</v>
       </c>
       <c r="B36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C36">
         <v>30000</v>
@@ -4637,7 +4630,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -4645,7 +4638,7 @@
         <v>30108</v>
       </c>
       <c r="B37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C37">
         <v>30000</v>
@@ -4654,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -4662,7 +4655,7 @@
         <v>30109</v>
       </c>
       <c r="B38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C38">
         <v>30000</v>
@@ -4671,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -4679,7 +4672,7 @@
         <v>30110</v>
       </c>
       <c r="B39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C39">
         <v>30000</v>
@@ -4688,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -4696,7 +4689,7 @@
         <v>30111</v>
       </c>
       <c r="B40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C40">
         <v>30000</v>
@@ -4705,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -4713,7 +4706,7 @@
         <v>30112</v>
       </c>
       <c r="B41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C41">
         <v>30000</v>
@@ -4722,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/xlsx/gamedata.xlsx
+++ b/Assets/xlsx/gamedata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ProjectPDO\Portal\Assets\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Portal\Assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4040F88C-B687-46E3-BC6F-8863BC7C3642}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC79021-3BA5-46BD-8DAF-3C1C6B5BC7DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27840" windowHeight="16440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerLevel" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="181">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,10 +81,6 @@
   </si>
   <si>
     <t>시스템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1526,7 +1522,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -1535,16 +1531,16 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" t="s">
-        <v>43</v>
-      </c>
       <c r="H1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1552,13 +1548,13 @@
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>101</v>
@@ -1578,13 +1574,13 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
       </c>
       <c r="E3">
         <v>102</v>
@@ -1624,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1992,7 +1988,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -2001,7 +1997,7 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2009,13 +2005,13 @@
         <v>10101</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2">
         <v>10101</v>
@@ -2026,13 +2022,13 @@
         <v>10102</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
         <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>49</v>
       </c>
       <c r="E3">
         <v>10102</v>
@@ -2043,13 +2039,13 @@
         <v>10201</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4">
         <v>10201</v>
@@ -2060,13 +2056,13 @@
         <v>10202</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5">
         <v>10202</v>
@@ -2099,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2396,34 +2392,34 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -2431,28 +2427,28 @@
         <v>20101</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H2">
         <v>101</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J2" s="1">
         <v>20101</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -2460,28 +2456,28 @@
         <v>20102</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H3">
         <v>101</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J3" s="1">
         <v>20102</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -2489,22 +2485,22 @@
         <v>20103</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4">
         <v>101</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J4" s="1">
         <v>20103</v>
@@ -2515,22 +2511,22 @@
         <v>20104</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5">
         <v>101</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J5" s="1">
         <v>20104</v>
@@ -2541,22 +2537,22 @@
         <v>20105</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H6">
         <v>101</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J6" s="1">
         <v>20105</v>
@@ -2567,22 +2563,22 @@
         <v>20106</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H7">
         <v>101</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J7" s="1">
         <v>20106</v>
@@ -2593,22 +2589,22 @@
         <v>20107</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="1">
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8">
         <v>101</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J8" s="1">
         <v>20107</v>
@@ -2619,22 +2615,22 @@
         <v>20108</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" s="1">
         <v>4</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9">
         <v>101</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J9" s="1">
         <v>20108</v>
@@ -2645,22 +2641,22 @@
         <v>20201</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H10">
         <v>102</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J10" s="1">
         <v>20201</v>
@@ -2671,22 +2667,22 @@
         <v>20202</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H11">
         <v>102</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J11" s="1">
         <v>20202</v>
@@ -2697,22 +2693,22 @@
         <v>20203</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F12" s="1">
         <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H12">
         <v>102</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J12" s="1">
         <v>20203</v>
@@ -2723,22 +2719,22 @@
         <v>20204</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F13" s="1">
         <v>4</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H13">
         <v>102</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J13" s="1">
         <v>20204</v>
@@ -2749,22 +2745,22 @@
         <v>20205</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H14">
         <v>102</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J14" s="1">
         <v>20205</v>
@@ -2775,22 +2771,22 @@
         <v>20206</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F15" s="1">
         <v>2</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H15">
         <v>102</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J15" s="1">
         <v>20206</v>
@@ -2801,22 +2797,22 @@
         <v>20207</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" s="1">
         <v>3</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H16">
         <v>102</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J16" s="1">
         <v>20207</v>
@@ -2827,22 +2823,22 @@
         <v>20208</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F17" s="1">
         <v>4</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H17">
         <v>102</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J17" s="1">
         <v>20208</v>
@@ -2877,19 +2873,19 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" t="s">
         <v>128</v>
       </c>
-      <c r="F1" t="s">
-        <v>129</v>
-      </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -3473,38 +3469,38 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1"/>
       <c r="O1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -3512,10 +3508,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -3524,19 +3520,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I2">
         <v>101</v>
       </c>
       <c r="J2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K2">
         <v>30101</v>
       </c>
       <c r="O2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -3544,10 +3540,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -3556,13 +3552,13 @@
         <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I3">
         <v>101</v>
       </c>
       <c r="J3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K3">
         <v>30102</v>
@@ -3573,10 +3569,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -3585,13 +3581,13 @@
         <v>250</v>
       </c>
       <c r="H4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I4">
         <v>101</v>
       </c>
       <c r="J4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K4">
         <v>30103</v>
@@ -3602,10 +3598,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -3614,13 +3610,13 @@
         <v>1000</v>
       </c>
       <c r="H5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I5">
         <v>101</v>
       </c>
       <c r="J5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K5">
         <v>30104</v>
@@ -3631,10 +3627,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3643,13 +3639,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I6">
         <v>101</v>
       </c>
       <c r="J6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K6">
         <v>30105</v>
@@ -3660,10 +3656,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -3672,13 +3668,13 @@
         <v>100</v>
       </c>
       <c r="H7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I7">
         <v>101</v>
       </c>
       <c r="J7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K7">
         <v>30106</v>
@@ -3689,10 +3685,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -3701,13 +3697,13 @@
         <v>250</v>
       </c>
       <c r="H8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I8">
         <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K8">
         <v>30107</v>
@@ -3718,10 +3714,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -3730,13 +3726,13 @@
         <v>1000</v>
       </c>
       <c r="H9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I9">
         <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K9">
         <v>30108</v>
@@ -3747,10 +3743,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -3759,13 +3755,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I10">
         <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K10">
         <v>30109</v>
@@ -3776,10 +3772,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -3788,13 +3784,13 @@
         <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I11">
         <v>101</v>
       </c>
       <c r="J11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K11">
         <v>30110</v>
@@ -3805,10 +3801,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -3817,13 +3813,13 @@
         <v>250</v>
       </c>
       <c r="H12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I12">
         <v>101</v>
       </c>
       <c r="J12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K12">
         <v>30111</v>
@@ -3834,10 +3830,10 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F13">
         <v>4</v>
@@ -3846,13 +3842,13 @@
         <v>1000</v>
       </c>
       <c r="H13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I13">
         <v>101</v>
       </c>
       <c r="J13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K13">
         <v>30112</v>
@@ -3870,7 +3866,7 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3894,10 +3890,10 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
@@ -3956,36 +3952,36 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -3993,10 +3989,10 @@
         <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -4007,7 +4003,7 @@
         <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -4016,31 +4012,31 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" t="s">
-        <v>18</v>
-      </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -4048,7 +4044,7 @@
         <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -4057,31 +4053,31 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
         <v>17</v>
       </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" t="s">
-        <v>18</v>
-      </c>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -4089,7 +4085,7 @@
         <v>10000</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4103,7 +4099,7 @@
         <v>10101</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>10000</v>
@@ -4112,7 +4108,7 @@
         <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -4120,7 +4116,7 @@
         <v>10102</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9">
         <v>10000</v>
@@ -4129,7 +4125,7 @@
         <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -4137,7 +4133,7 @@
         <v>10201</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>10000</v>
@@ -4146,7 +4142,7 @@
         <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -4154,7 +4150,7 @@
         <v>10202</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>10000</v>
@@ -4163,7 +4159,7 @@
         <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -4171,7 +4167,7 @@
         <v>20000</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -4185,7 +4181,7 @@
         <v>20101</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13">
         <v>20000</v>
@@ -4194,10 +4190,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -4205,7 +4201,7 @@
         <v>20102</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14">
         <v>20000</v>
@@ -4214,10 +4210,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -4225,7 +4221,7 @@
         <v>20103</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15">
         <v>20000</v>
@@ -4234,10 +4230,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -4245,7 +4241,7 @@
         <v>20104</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16">
         <v>20000</v>
@@ -4254,10 +4250,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -4265,7 +4261,7 @@
         <v>20105</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17">
         <v>20000</v>
@@ -4274,10 +4270,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -4285,7 +4281,7 @@
         <v>20106</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18">
         <v>20000</v>
@@ -4294,10 +4290,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -4305,7 +4301,7 @@
         <v>20107</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19">
         <v>20000</v>
@@ -4314,10 +4310,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -4325,7 +4321,7 @@
         <v>20108</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20">
         <v>20000</v>
@@ -4334,10 +4330,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -4345,7 +4341,7 @@
         <v>20201</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21">
         <v>20000</v>
@@ -4354,10 +4350,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -4365,7 +4361,7 @@
         <v>20202</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22">
         <v>20000</v>
@@ -4374,10 +4370,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -4385,7 +4381,7 @@
         <v>20203</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23">
         <v>20000</v>
@@ -4394,10 +4390,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -4405,7 +4401,7 @@
         <v>20204</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C24">
         <v>20000</v>
@@ -4414,10 +4410,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -4425,7 +4421,7 @@
         <v>20205</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25">
         <v>20000</v>
@@ -4434,10 +4430,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -4445,7 +4441,7 @@
         <v>20206</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C26">
         <v>20000</v>
@@ -4454,10 +4450,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -4465,7 +4461,7 @@
         <v>20207</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C27">
         <v>20000</v>
@@ -4474,10 +4470,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -4485,7 +4481,7 @@
         <v>20208</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C28">
         <v>20000</v>
@@ -4494,10 +4490,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -4505,7 +4501,7 @@
         <v>30000</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -4519,7 +4515,7 @@
         <v>30101</v>
       </c>
       <c r="B30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C30">
         <v>30000</v>
@@ -4528,7 +4524,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -4536,7 +4532,7 @@
         <v>30102</v>
       </c>
       <c r="B31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C31">
         <v>30000</v>
@@ -4545,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -4553,7 +4549,7 @@
         <v>30103</v>
       </c>
       <c r="B32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C32">
         <v>30000</v>
@@ -4562,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -4570,7 +4566,7 @@
         <v>30104</v>
       </c>
       <c r="B33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C33">
         <v>30000</v>
@@ -4579,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -4587,7 +4583,7 @@
         <v>30105</v>
       </c>
       <c r="B34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C34">
         <v>30000</v>
@@ -4596,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -4604,7 +4600,7 @@
         <v>30106</v>
       </c>
       <c r="B35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C35">
         <v>30000</v>
@@ -4613,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -4621,7 +4617,7 @@
         <v>30107</v>
       </c>
       <c r="B36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C36">
         <v>30000</v>
@@ -4630,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -4638,7 +4634,7 @@
         <v>30108</v>
       </c>
       <c r="B37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C37">
         <v>30000</v>
@@ -4647,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -4655,7 +4651,7 @@
         <v>30109</v>
       </c>
       <c r="B38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C38">
         <v>30000</v>
@@ -4664,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -4672,7 +4668,7 @@
         <v>30110</v>
       </c>
       <c r="B39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C39">
         <v>30000</v>
@@ -4681,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -4689,7 +4685,7 @@
         <v>30111</v>
       </c>
       <c r="B40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C40">
         <v>30000</v>
@@ -4698,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -4706,7 +4702,7 @@
         <v>30112</v>
       </c>
       <c r="B41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C41">
         <v>30000</v>
@@ -4715,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/xlsx/gamedata.xlsx
+++ b/Assets/xlsx/gamedata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Portal\Assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC79021-3BA5-46BD-8DAF-3C1C6B5BC7DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCA6C3C-EBAB-427C-9D8F-4808DFDCABE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3866,7 +3866,7 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/xlsx/gamedata.xlsx
+++ b/Assets/xlsx/gamedata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Portal\Assets\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ProjectPDO\Portal\Assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCA6C3C-EBAB-427C-9D8F-4808DFDCABE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC976A7F-D9F7-472C-8E19-6BE742DB8E26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27840" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerLevel" sheetId="1" r:id="rId1"/>
@@ -1606,7 +1606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C46B52-1B46-4CFC-96A9-FD3476CABEE2}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -2079,7 +2079,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3865,7 +3865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78BD332-DE9D-49EA-A752-215773688C1D}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
